--- a/Data/g19.11.xlsx
+++ b/Data/g19.11.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Variável</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -463,140 +463,128 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-01-2019</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>85.83694871140504</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11</v>
-      </c>
+        <v>68.56363861777594</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-01-2020</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>90.72381769444762</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9</v>
-      </c>
+        <v>61.56099869691202</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>83.75550451492396</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11</v>
-      </c>
+        <v>53.97434414510603</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-01-2022</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72.66955172931814</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12</v>
-      </c>
+        <v>46.18408554029129</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01-01-2023</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35.02256104513838</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16</v>
-      </c>
+        <v>88.21037480339555</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01-01-2024</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.104059540163728</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16</v>
-      </c>
+        <v>88.02052156599348</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,16 +594,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-01-2019</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>95.86532403074726</v>
+        <v>83.54818590877423</v>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
@@ -627,228 +615,110 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01-01-2020</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>98.65851478940262</v>
+        <v>72.27169036615449</v>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>92.53173438515411</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>79.14694050681408</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01-01-2022</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>92.69815197019814</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>68.11318834187223</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01-01-2023</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>85.18043463981323</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>32.56963020845826</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01-01-2024</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19.89469874942101</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Roubo de veículo</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>01-01-2019</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>93.28767679337811</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Roubo de veículo</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>01-01-2020</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>73.08990795079382</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Roubo de veículo</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>01-01-2021</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>73.08193936054492</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Roubo de veículo</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>01-01-2022</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>66.20886765522127</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Roubo de veículo</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>01-01-2023</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>56.90659091968853</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Roubo de veículo</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>01-01-2024</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>12.0634382630623</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>22.51006897519466</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g19.11.xlsx
+++ b/Data/g19.11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Posição relativamente às demais UF</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Faltam dados para todos os Estados</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,9 +482,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68.56363861777594</v>
+        <v>84.84155618287529</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -489,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,9 +506,12 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61.56099869691202</v>
+        <v>102.8390941398115</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -510,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -519,9 +530,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53.97434414510603</v>
+        <v>108.1721960914802</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -531,7 +545,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -540,19 +554,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46.18408554029129</v>
+        <v>102.2104007004055</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,19 +578,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>88.21037480339555</v>
+        <v>83.51050151510037</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -582,19 +602,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>88.02052156599348</v>
+        <v>69.45399507865673</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -603,19 +626,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83.54818590877423</v>
+        <v>68.56363861777594</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -624,19 +650,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72.27169036615449</v>
+        <v>61.56099869691202</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -645,21 +674,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>79.14694050681408</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11</v>
+        <v>53.97434414510603</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -668,21 +698,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68.11318834187223</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12</v>
+        <v>46.18408554029129</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -691,33 +722,487 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32.56963020845826</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16</v>
+        <v>94.18584801468253</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>116.8466589954399</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>121.7601711824096</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>114.7233992580749</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>92.05996159991663</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>94.22450942337706</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>88.21037480339555</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>88.02052156599348</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>83.54818590877423</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>72.27169036615449</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>88.60189014358107</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>126.4565524072786</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>132.239620851065</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>99.19642120380563</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>82.51765408007823</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>86.45848785182783</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>79.14694050681408</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>68.11318834187223</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>32.56963020845826</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Roubo de veículo</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>22.51006897519466</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E31" t="n">
         <v>16</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g19.11.xlsx
+++ b/Data/g19.11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>84.84155618287529</v>
+        <v>84.84403284708468</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>102.8390941398115</v>
+        <v>102.8410689496428</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>108.1721960914802</v>
+        <v>108.1729812037018</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>83.51050151510037</v>
+        <v>83.51243910187303</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69.45399507865673</v>
+        <v>69.46670395951176</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68.56363861777594</v>
+        <v>69.14720560688447</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61.56099869691202</v>
+        <v>62.11967839732676</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53.97434414510603</v>
+        <v>54.51701568747725</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46.18408554029129</v>
+        <v>47.25271968447776</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -708,12 +708,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -722,11 +722,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>94.18584801468253</v>
+        <v>23.08594189964208</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -737,7 +737,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116.8466589954399</v>
+        <v>94.1930028223985</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
@@ -761,7 +761,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>121.7601711824096</v>
+        <v>116.8525834249339</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
@@ -785,7 +785,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>114.7233992580749</v>
+        <v>121.7625265190743</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>92.05996159991663</v>
+        <v>114.7233992580749</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
@@ -833,7 +833,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>94.22450942337706</v>
+        <v>92.06577436023456</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
@@ -857,7 +857,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>88.21037480339555</v>
+        <v>94.26263606594213</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -881,7 +881,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>88.02052156599348</v>
+        <v>89.96107577072114</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
@@ -905,7 +905,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>83.54818590877423</v>
+        <v>89.68629975007076</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
@@ -929,7 +929,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>72.27169036615449</v>
+        <v>84.91209229613152</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
@@ -948,12 +948,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -962,24 +962,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>88.60189014358107</v>
-      </c>
-      <c r="E22" t="n">
-        <v>13</v>
-      </c>
+        <v>72.68535788434779</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -988,13 +986,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>126.4565524072786</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8</v>
-      </c>
+        <v>38.90485045684526</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1005,7 +1001,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1014,10 +1010,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>132.239620851065</v>
+        <v>88.60189014358107</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -1031,7 +1027,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1040,10 +1036,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>99.19642120380563</v>
+        <v>126.4565524072786</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1057,7 +1053,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1066,10 +1062,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>82.51765408007823</v>
+        <v>132.239620851065</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1083,7 +1079,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1092,10 +1088,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>86.45848785182783</v>
+        <v>99.19642120380563</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -1109,7 +1105,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1118,13 +1114,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79.14694050681408</v>
+        <v>82.51765408007823</v>
       </c>
       <c r="E28" t="n">
         <v>11</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1135,7 +1131,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1144,13 +1140,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>68.11318834187223</v>
+        <v>86.45848785182783</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1161,7 +1157,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1170,10 +1166,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32.56963020845826</v>
+        <v>79.14694050681408</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1187,21 +1183,99 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>68.11318834187223</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>32.56963020845826</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Roubo de veículo</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>22.51006897519466</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E33" t="n">
         <v>16</v>
       </c>
-      <c r="F31" t="b">
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9.494502724383294</v>
+      </c>
+      <c r="E34" t="n">
+        <v>19</v>
+      </c>
+      <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/g19.11.xlsx
+++ b/Data/g19.11.xlsx
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23.08594189964208</v>
+        <v>23.2419156297249</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">

--- a/Data/g19.11.xlsx
+++ b/Data/g19.11.xlsx
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47.25271968447776</v>
+        <v>47.25208013818724</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23.2419156297249</v>
+        <v>25.53591645352849</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38.90485045684526</v>
+        <v>43.53639735871651</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9.494502724383294</v>
+        <v>11.0700097266827</v>
       </c>
       <c r="E34" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>

--- a/Data/g19.11.xlsx
+++ b/Data/g19.11.xlsx
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47.25208013818724</v>
+        <v>47.252474545305</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25.53591645352849</v>
+        <v>28.80520225915943</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72.68535788434779</v>
+        <v>72.68654110570107</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43.53639735871651</v>
+        <v>49.02917820068858</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11.0700097266827</v>
+        <v>11.94068464900606</v>
       </c>
       <c r="E34" t="n">
         <v>18</v>
